--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0025-007 - Normal Skenario Admin SLN mendownload Report Log Pengiriman WA pada Digi Sales Portal.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0025-007 - Normal Skenario Admin SLN mendownload Report Log Pengiriman WA pada Digi Sales Portal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57CE236-BBA3-4700-B814-9BAD6FC93AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F92DC0E-63D8-487E-8EEA-CD9128190BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0337" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0025" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,14 +95,14 @@
     <t>Report Log WA</t>
   </si>
   <si>
-    <t>DGS-352</t>
-  </si>
-  <si>
     <t>Normal Skenario Admin SLN mendownload Report Log Pengiriman WA pada Digi Sales Portal</t>
   </si>
   <si>
     <t xml:space="preserve"> - Berhasil menampilkan data Log Pengiriman WA
  - Berhasil export data dengan format csv</t>
+  </si>
+  <si>
+    <t>SCD0025-007</t>
   </si>
 </sst>
 </file>
@@ -543,13 +543,13 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -621,16 +621,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="17">
         <v>52326</v>
@@ -648,7 +648,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="17" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy/mm/dd") &amp;" - "&amp; TEXT(TODAY(),"yyyy/mm/dd")</f>
-        <v>2022/11/07 - 2022/11/07</v>
+        <v>2022/11/10 - 2022/11/10</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>18</v>
